--- a/Code/Results/Cases/Case_0_246/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_246/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.423487927206052</v>
+        <v>10.10611590299825</v>
       </c>
       <c r="D2">
-        <v>3.658700761387081</v>
+        <v>5.095328314354823</v>
       </c>
       <c r="E2">
-        <v>19.30987498590585</v>
+        <v>13.42746585343532</v>
       </c>
       <c r="F2">
-        <v>19.78295435092314</v>
+        <v>25.6518663811093</v>
       </c>
       <c r="G2">
-        <v>1.982673559331931</v>
+        <v>3.637794530770863</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>14.40936838678633</v>
+        <v>9.736333479142679</v>
       </c>
       <c r="M2">
-        <v>100.6702947198107</v>
+        <v>59.49557385359812</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.96143517466116</v>
+        <v>22.91392056731097</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.4281123795842</v>
+        <v>10.31669980225114</v>
       </c>
       <c r="D3">
-        <v>3.280165637809181</v>
+        <v>5.143663013515512</v>
       </c>
       <c r="E3">
-        <v>17.51153153317452</v>
+        <v>13.21881991619042</v>
       </c>
       <c r="F3">
-        <v>17.59488906907746</v>
+        <v>25.97515904604353</v>
       </c>
       <c r="G3">
-        <v>2.001540846263595</v>
+        <v>3.642440724711932</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.20635016660208</v>
+        <v>9.56128167891673</v>
       </c>
       <c r="M3">
-        <v>92.87698093232748</v>
+        <v>56.10111810328626</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.05095714196509</v>
+        <v>23.26526068307782</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.895163564580878</v>
+        <v>10.45264581018219</v>
       </c>
       <c r="D4">
-        <v>3.054058377524894</v>
+        <v>5.175064505166724</v>
       </c>
       <c r="E4">
-        <v>16.42569456930926</v>
+        <v>13.09668431511862</v>
       </c>
       <c r="F4">
-        <v>16.35271503088333</v>
+        <v>26.19242375369575</v>
       </c>
       <c r="G4">
-        <v>2.012792153370611</v>
+        <v>3.645410858064896</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.46574541893247</v>
+        <v>9.45570469320057</v>
       </c>
       <c r="M4">
-        <v>88.00578363109879</v>
+        <v>53.90166570820146</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.96374726638401</v>
+        <v>23.49536023483869</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.696742793102724</v>
+        <v>10.50969399564524</v>
       </c>
       <c r="D5">
-        <v>2.962742049431334</v>
+        <v>5.188290963917646</v>
       </c>
       <c r="E5">
-        <v>15.98462067530146</v>
+        <v>13.04846354268325</v>
       </c>
       <c r="F5">
-        <v>15.8695154064111</v>
+        <v>26.28556321486365</v>
       </c>
       <c r="G5">
-        <v>2.017325833452007</v>
+        <v>3.646650933089758</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.16165805363866</v>
+        <v>9.413211889256633</v>
       </c>
       <c r="M5">
-        <v>85.99053588631691</v>
+        <v>52.97667278962672</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.54026873176458</v>
+        <v>23.59267711251196</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.664918037718791</v>
+        <v>10.51926580454994</v>
       </c>
       <c r="D6">
-        <v>2.947610375329878</v>
+        <v>5.190513091706482</v>
       </c>
       <c r="E6">
-        <v>15.91138963319339</v>
+        <v>13.04055151087475</v>
       </c>
       <c r="F6">
-        <v>15.80728202288032</v>
+        <v>26.3013036269783</v>
       </c>
       <c r="G6">
-        <v>2.018076334526855</v>
+        <v>3.646858647826607</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.11098323810647</v>
+        <v>9.406189549903111</v>
       </c>
       <c r="M6">
-        <v>85.65387466292698</v>
+        <v>52.8213550370209</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.47109748064554</v>
+        <v>23.6090490481246</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.892412182234985</v>
+        <v>10.45340853227658</v>
       </c>
       <c r="D7">
-        <v>3.052824373603223</v>
+        <v>5.175241144573855</v>
       </c>
       <c r="E7">
-        <v>16.41974392798046</v>
+        <v>13.09602765368839</v>
       </c>
       <c r="F7">
-        <v>16.34610766293664</v>
+        <v>26.19366137971527</v>
       </c>
       <c r="G7">
-        <v>2.012853467418656</v>
+        <v>3.645427461530641</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.46165565575814</v>
+        <v>9.45512940354805</v>
       </c>
       <c r="M7">
-        <v>87.97873717721963</v>
+        <v>53.8893066946526</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.9579585807214</v>
+        <v>23.49665839609424</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.063164978967752</v>
+        <v>10.17733147042538</v>
       </c>
       <c r="D8">
-        <v>3.526335078335933</v>
+        <v>5.111634226130922</v>
       </c>
       <c r="E8">
-        <v>18.68373237490598</v>
+        <v>13.35431478205575</v>
       </c>
       <c r="F8">
-        <v>19.00552608781254</v>
+        <v>25.75937294994932</v>
       </c>
       <c r="G8">
-        <v>1.989270940780691</v>
+        <v>3.639372312387642</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.99370984452126</v>
+        <v>9.675610944166548</v>
       </c>
       <c r="M8">
-        <v>97.99502965561618</v>
+        <v>58.34922674327721</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.28321846252098</v>
+        <v>23.0320385207732</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.101610058267834</v>
+        <v>9.689833071102576</v>
       </c>
       <c r="D9">
-        <v>4.558305969853347</v>
+        <v>5.000745505084448</v>
       </c>
       <c r="E9">
-        <v>23.4966710383271</v>
+        <v>13.90596424581097</v>
       </c>
       <c r="F9">
-        <v>25.24771597412428</v>
+        <v>25.06198192284597</v>
       </c>
       <c r="G9">
-        <v>1.938126577043128</v>
+        <v>3.62841926270772</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>17.10867417780641</v>
+        <v>10.12086103141774</v>
       </c>
       <c r="M9">
-        <v>117.549609802065</v>
+        <v>66.17238254153467</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.72068263250261</v>
+        <v>22.23811643039232</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.23258258684256</v>
+        <v>9.366368961533562</v>
       </c>
       <c r="D10">
-        <v>5.526122945016555</v>
+        <v>4.927971007705028</v>
       </c>
       <c r="E10">
-        <v>27.89717059965768</v>
+        <v>14.33566642322749</v>
       </c>
       <c r="F10">
-        <v>31.16538421092399</v>
+        <v>24.65134054368261</v>
       </c>
       <c r="G10">
-        <v>1.891431485867037</v>
+        <v>3.620918963936241</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.81573532447093</v>
+        <v>10.4529409938505</v>
       </c>
       <c r="M10">
-        <v>133.5480249508522</v>
+        <v>71.35089414462129</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.88324520586318</v>
+        <v>21.73091758417123</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.19365083753278</v>
+        <v>9.22724726258541</v>
       </c>
       <c r="D11">
-        <v>6.112387923726347</v>
+        <v>4.896816649848311</v>
       </c>
       <c r="E11">
-        <v>30.53033627080804</v>
+        <v>14.53577602565821</v>
       </c>
       <c r="F11">
-        <v>34.65669141312559</v>
+        <v>24.48837128584228</v>
       </c>
       <c r="G11">
-        <v>1.864064777672829</v>
+        <v>3.617622336802807</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.38299699566683</v>
+        <v>10.60451053187614</v>
       </c>
       <c r="M11">
-        <v>142.3833478788076</v>
+        <v>73.58274324506252</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.94425626719831</v>
+        <v>21.5178230871501</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.12055414916792</v>
+        <v>9.175768608925388</v>
       </c>
       <c r="D12">
-        <v>6.386223145898443</v>
+        <v>4.885306025052649</v>
       </c>
       <c r="E12">
-        <v>31.75573360031776</v>
+        <v>14.61216342968768</v>
       </c>
       <c r="F12">
-        <v>36.25068403832108</v>
+        <v>24.43023748965814</v>
       </c>
       <c r="G12">
-        <v>1.851562118993334</v>
+        <v>3.616390297626789</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.1009358474608</v>
+        <v>10.66193344514235</v>
       </c>
       <c r="M12">
-        <v>146.2992832351764</v>
+        <v>74.41008167231267</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>29.34715531812652</v>
+        <v>21.43976746239898</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>14.9082366300454</v>
+        <v>9.186801055810433</v>
       </c>
       <c r="D13">
-        <v>6.323652682207512</v>
+        <v>4.887772179720236</v>
       </c>
       <c r="E13">
-        <v>31.47589243135318</v>
+        <v>14.59568577339803</v>
       </c>
       <c r="F13">
-        <v>35.8887530264202</v>
+        <v>24.44259599414707</v>
       </c>
       <c r="G13">
-        <v>1.854402352690639</v>
+        <v>3.616654917579418</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.93757310597968</v>
+        <v>10.64956589803744</v>
       </c>
       <c r="M13">
-        <v>145.4156364287979</v>
+        <v>74.23269153409206</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>29.02828134590429</v>
+        <v>21.4564590646833</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.26478349717349</v>
+        <v>9.222987648901386</v>
       </c>
       <c r="D14">
-        <v>6.133467139325453</v>
+        <v>4.895863876777773</v>
       </c>
       <c r="E14">
-        <v>30.62473747689681</v>
+        <v>14.54204854997918</v>
       </c>
       <c r="F14">
-        <v>34.78029664285884</v>
+        <v>24.48351596667401</v>
       </c>
       <c r="G14">
-        <v>1.863095747345191</v>
+        <v>3.617520650590103</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>21.43854814406993</v>
+        <v>10.60923446381947</v>
       </c>
       <c r="M14">
-        <v>142.6893402420897</v>
+        <v>73.65116579970345</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>28.05291138001641</v>
+        <v>21.51134790559784</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.90125664830948</v>
+        <v>9.245311336416956</v>
       </c>
       <c r="D15">
-        <v>6.025619350751618</v>
+        <v>4.900857828310388</v>
       </c>
       <c r="E15">
-        <v>30.1415932196925</v>
+        <v>14.50927202946939</v>
       </c>
       <c r="F15">
-        <v>34.14637738551077</v>
+        <v>24.50905132357781</v>
       </c>
       <c r="G15">
-        <v>1.868064933051204</v>
+        <v>3.618053054861376</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.15379510006001</v>
+        <v>10.58453247983229</v>
       </c>
       <c r="M15">
-        <v>141.1155703053729</v>
+        <v>73.29264503081721</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.49588750111636</v>
+        <v>21.54531571673626</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.12087322728331</v>
+        <v>9.375626466332051</v>
       </c>
       <c r="D16">
-        <v>5.492379431832378</v>
+        <v>4.930046803813864</v>
       </c>
       <c r="E16">
-        <v>27.74504442169527</v>
+        <v>14.32267721738075</v>
       </c>
       <c r="F16">
-        <v>30.96163166672361</v>
+        <v>24.6624834399929</v>
       </c>
       <c r="G16">
-        <v>1.893029824848619</v>
+        <v>3.621136704521297</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>19.72408011917473</v>
+        <v>10.44304174723973</v>
       </c>
       <c r="M16">
-        <v>133.0194558290407</v>
+        <v>71.20254402110731</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.70503283177943</v>
+        <v>21.74520727290193</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.20255860600582</v>
+        <v>9.457659107660977</v>
       </c>
       <c r="D17">
-        <v>5.213199344705957</v>
+        <v>4.948457313251619</v>
       </c>
       <c r="E17">
-        <v>26.48332635197296</v>
+        <v>14.20935408443424</v>
       </c>
       <c r="F17">
-        <v>29.26648511766106</v>
+        <v>24.76282003361363</v>
       </c>
       <c r="G17">
-        <v>1.90634290764698</v>
+        <v>3.623057773457798</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.95885846226139</v>
+        <v>10.35633757893966</v>
       </c>
       <c r="M17">
-        <v>128.5686805975574</v>
+        <v>69.88859565467529</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.22389264809766</v>
+        <v>21.8724215083762</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.71632372245764</v>
+        <v>9.505593978676249</v>
       </c>
       <c r="D18">
-        <v>5.063903349991819</v>
+        <v>4.959229789761626</v>
       </c>
       <c r="E18">
-        <v>25.8060746998084</v>
+        <v>14.14461326832235</v>
       </c>
       <c r="F18">
-        <v>28.35416021958272</v>
+        <v>24.82276493411979</v>
       </c>
       <c r="G18">
-        <v>1.913524244896735</v>
+        <v>3.624173589683288</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.54425525970013</v>
+        <v>10.30651770608612</v>
       </c>
       <c r="M18">
-        <v>126.1414856384054</v>
+        <v>69.12118485935399</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.42774525277023</v>
+        <v>21.94724485503059</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.55761923151469</v>
+        <v>9.521951621861232</v>
       </c>
       <c r="D19">
-        <v>5.014920026525811</v>
+        <v>4.962908454585035</v>
       </c>
       <c r="E19">
-        <v>25.5834460176886</v>
+        <v>14.12277039627248</v>
       </c>
       <c r="F19">
-        <v>28.05412860155751</v>
+        <v>24.84344037666553</v>
       </c>
       <c r="G19">
-        <v>1.915889271729792</v>
+        <v>3.6245532602062</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.40735441954601</v>
+        <v>10.289659593714</v>
       </c>
       <c r="M19">
-        <v>125.3345835512182</v>
+        <v>68.85935022239195</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.16605270428144</v>
+        <v>21.97285965049631</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.29563542352123</v>
+        <v>9.448848437218246</v>
       </c>
       <c r="D20">
-        <v>5.24165321182797</v>
+        <v>4.946478474953206</v>
       </c>
       <c r="E20">
-        <v>26.61219038495767</v>
+        <v>14.22137243700314</v>
       </c>
       <c r="F20">
-        <v>29.43994977975187</v>
+        <v>24.75190674132723</v>
       </c>
       <c r="G20">
-        <v>1.90497899216001</v>
+        <v>3.622852149412373</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>19.03743591504547</v>
+        <v>10.36556254404256</v>
       </c>
       <c r="M20">
-        <v>129.0258689590737</v>
+        <v>70.0296748173248</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.3753416272274</v>
+        <v>21.85870752452566</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.44679641534002</v>
+        <v>9.212325669622958</v>
       </c>
       <c r="D21">
-        <v>6.187353403137257</v>
+        <v>4.893479310991101</v>
       </c>
       <c r="E21">
-        <v>30.86599932277191</v>
+        <v>14.5577869813727</v>
       </c>
       <c r="F21">
-        <v>35.09560868184656</v>
+        <v>24.4713984095335</v>
       </c>
       <c r="G21">
-        <v>1.860623490849281</v>
+        <v>3.61726592294143</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.58033259049787</v>
+        <v>10.62108040601348</v>
       </c>
       <c r="M21">
-        <v>143.4680655243321</v>
+        <v>73.82245733935962</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.33018379621299</v>
+        <v>21.49515325294007</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>18.10888125500611</v>
+        <v>9.064788648291268</v>
       </c>
       <c r="D22">
-        <v>7.258938994005863</v>
+        <v>4.860516647481975</v>
       </c>
       <c r="E22">
-        <v>35.6575822602172</v>
+        <v>14.78118555233986</v>
       </c>
       <c r="F22">
-        <v>41.14087358467338</v>
+        <v>24.30900544350633</v>
       </c>
       <c r="G22">
-        <v>1.813040464543006</v>
+        <v>3.613710011979133</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.34637878719416</v>
+        <v>10.78821331032586</v>
       </c>
       <c r="M22">
-        <v>157.9946639494583</v>
+        <v>76.19744360099241</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>33.67802099437793</v>
+        <v>21.27298260761975</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.81182913126564</v>
+        <v>9.14286910664768</v>
       </c>
       <c r="D23">
-        <v>6.589363982860642</v>
+        <v>4.877953913853954</v>
       </c>
       <c r="E23">
-        <v>32.66385068258274</v>
+        <v>14.66164846404137</v>
       </c>
       <c r="F23">
-        <v>37.41588678303815</v>
+        <v>24.39371070631758</v>
       </c>
       <c r="G23">
-        <v>1.842410722282944</v>
+        <v>3.615599262508329</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.62877063224355</v>
+        <v>10.69901312984888</v>
       </c>
       <c r="M23">
-        <v>149.1243093565868</v>
+        <v>74.93936069436391</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>30.3751586845178</v>
+        <v>21.39011116889658</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.25343005382943</v>
+        <v>9.452829336630568</v>
       </c>
       <c r="D24">
-        <v>5.228755635752769</v>
+        <v>4.947372522546486</v>
       </c>
       <c r="E24">
-        <v>26.55378694750576</v>
+        <v>14.21593765793912</v>
       </c>
       <c r="F24">
-        <v>29.36133933937388</v>
+        <v>24.75683361264927</v>
       </c>
       <c r="G24">
-        <v>1.905597035653968</v>
+        <v>3.622945076615284</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>19.00183540166582</v>
+        <v>10.36139184813132</v>
       </c>
       <c r="M24">
-        <v>128.8188462576961</v>
+        <v>69.96593031850452</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.30670515587519</v>
+        <v>21.86490237223584</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.173689424687673</v>
+        <v>9.815770661416581</v>
       </c>
       <c r="D25">
-        <v>4.258247297519908</v>
+        <v>5.029236999251143</v>
       </c>
       <c r="E25">
-        <v>22.11247455338586</v>
+        <v>13.75221297396007</v>
       </c>
       <c r="F25">
-        <v>23.40464862206868</v>
+        <v>25.2333552949198</v>
       </c>
       <c r="G25">
-        <v>1.952900473317136</v>
+        <v>3.631285226717909</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.23085889756651</v>
+        <v>9.999335104676701</v>
       </c>
       <c r="M25">
-        <v>112.1593180948698</v>
+        <v>64.15568675200575</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.11610032458774</v>
+        <v>22.43988783682022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_246/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_246/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.10611590299825</v>
+        <v>6.423487927206242</v>
       </c>
       <c r="D2">
-        <v>5.095328314354823</v>
+        <v>3.658700761387133</v>
       </c>
       <c r="E2">
-        <v>13.42746585343532</v>
+        <v>19.30987498590592</v>
       </c>
       <c r="F2">
-        <v>25.6518663811093</v>
+        <v>19.78295435092319</v>
       </c>
       <c r="G2">
-        <v>3.637794530770863</v>
+        <v>1.98267355933193</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.736333479142679</v>
+        <v>14.40936838678637</v>
       </c>
       <c r="M2">
-        <v>59.49557385359812</v>
+        <v>100.6702947198108</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.91392056731097</v>
+        <v>14.96143517466125</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.31669980225114</v>
+        <v>5.428112379584051</v>
       </c>
       <c r="D3">
-        <v>5.143663013515512</v>
+        <v>3.280165637809175</v>
       </c>
       <c r="E3">
-        <v>13.21881991619042</v>
+        <v>17.51153153317446</v>
       </c>
       <c r="F3">
-        <v>25.97515904604353</v>
+        <v>17.59488906907743</v>
       </c>
       <c r="G3">
-        <v>3.642440724711932</v>
+        <v>2.001540846263728</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.56128167891673</v>
+        <v>13.20635016660205</v>
       </c>
       <c r="M3">
-        <v>56.10111810328626</v>
+        <v>92.87698093232743</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.26526068307782</v>
+        <v>13.05095714196508</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.45264581018219</v>
+        <v>4.895163564580863</v>
       </c>
       <c r="D4">
-        <v>5.175064505166724</v>
+        <v>3.054058377524866</v>
       </c>
       <c r="E4">
-        <v>13.09668431511862</v>
+        <v>16.42569456930926</v>
       </c>
       <c r="F4">
-        <v>26.19242375369575</v>
+        <v>16.35271503088331</v>
       </c>
       <c r="G4">
-        <v>3.645410858064896</v>
+        <v>2.012792153370476</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.45570469320057</v>
+        <v>12.46574541893248</v>
       </c>
       <c r="M4">
-        <v>53.90166570820146</v>
+        <v>88.00578363109879</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.49536023483869</v>
+        <v>11.96374726638401</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.50969399564524</v>
+        <v>4.696742793102695</v>
       </c>
       <c r="D5">
-        <v>5.188290963917646</v>
+        <v>2.962742049431374</v>
       </c>
       <c r="E5">
-        <v>13.04846354268325</v>
+        <v>15.98462067530139</v>
       </c>
       <c r="F5">
-        <v>26.28556321486365</v>
+        <v>15.86951540641118</v>
       </c>
       <c r="G5">
-        <v>3.646650933089758</v>
+        <v>2.017325833452274</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.413211889256633</v>
+        <v>12.16165805363863</v>
       </c>
       <c r="M5">
-        <v>52.97667278962672</v>
+        <v>85.99053588631681</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.59267711251196</v>
+        <v>11.54026873176466</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.51926580454994</v>
+        <v>4.664918037718752</v>
       </c>
       <c r="D6">
-        <v>5.190513091706482</v>
+        <v>2.947610375329845</v>
       </c>
       <c r="E6">
-        <v>13.04055151087475</v>
+        <v>15.9113896331934</v>
       </c>
       <c r="F6">
-        <v>26.3013036269783</v>
+        <v>15.80728202288035</v>
       </c>
       <c r="G6">
-        <v>3.646858647826607</v>
+        <v>2.018076334526988</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.406189549903111</v>
+        <v>12.11098323810647</v>
       </c>
       <c r="M6">
-        <v>52.8213550370209</v>
+        <v>85.65387466292709</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.6090490481246</v>
+        <v>11.47109748064553</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.45340853227658</v>
+        <v>4.892412182235091</v>
       </c>
       <c r="D7">
-        <v>5.175241144573855</v>
+        <v>3.052824373603196</v>
       </c>
       <c r="E7">
-        <v>13.09602765368839</v>
+        <v>16.41974392798044</v>
       </c>
       <c r="F7">
-        <v>26.19366137971527</v>
+        <v>16.3461076629366</v>
       </c>
       <c r="G7">
-        <v>3.645427461530641</v>
+        <v>2.012853467418388</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.45512940354805</v>
+        <v>12.4616556557581</v>
       </c>
       <c r="M7">
-        <v>53.8893066946526</v>
+        <v>87.97873717721953</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.49665839609424</v>
+        <v>11.95795858072138</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.17733147042538</v>
+        <v>6.063164978967835</v>
       </c>
       <c r="D8">
-        <v>5.111634226130922</v>
+        <v>3.526335078335979</v>
       </c>
       <c r="E8">
-        <v>13.35431478205575</v>
+        <v>18.68373237490602</v>
       </c>
       <c r="F8">
-        <v>25.75937294994932</v>
+        <v>19.00552608781266</v>
       </c>
       <c r="G8">
-        <v>3.639372312387642</v>
+        <v>1.989270940780556</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.675610944166548</v>
+        <v>13.99370984452127</v>
       </c>
       <c r="M8">
-        <v>58.34922674327721</v>
+        <v>97.99502965561622</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.0320385207732</v>
+        <v>14.28321846252107</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.689833071102576</v>
+        <v>9.101610058267608</v>
       </c>
       <c r="D9">
-        <v>5.000745505084448</v>
+        <v>4.558305969853305</v>
       </c>
       <c r="E9">
-        <v>13.90596424581097</v>
+        <v>23.49667103832711</v>
       </c>
       <c r="F9">
-        <v>25.06198192284597</v>
+        <v>25.24771597412451</v>
       </c>
       <c r="G9">
-        <v>3.62841926270772</v>
+        <v>1.938126577042993</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.12086103141774</v>
+        <v>17.10867417780643</v>
       </c>
       <c r="M9">
-        <v>66.17238254153467</v>
+        <v>117.5496098020649</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.23811643039232</v>
+        <v>19.72068263250277</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.366368961533562</v>
+        <v>12.23258258684256</v>
       </c>
       <c r="D10">
-        <v>4.927971007705028</v>
+        <v>5.526122945016612</v>
       </c>
       <c r="E10">
-        <v>14.33566642322749</v>
+        <v>27.89717059965767</v>
       </c>
       <c r="F10">
-        <v>24.65134054368261</v>
+        <v>31.16538421092413</v>
       </c>
       <c r="G10">
-        <v>3.620918963936241</v>
+        <v>1.891431485867173</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.4529409938505</v>
+        <v>19.8157353244709</v>
       </c>
       <c r="M10">
-        <v>71.35089414462129</v>
+        <v>133.548024950852</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.73091758417123</v>
+        <v>24.88324520586335</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.22724726258541</v>
+        <v>14.19365083753264</v>
       </c>
       <c r="D11">
-        <v>4.896816649848311</v>
+        <v>6.112387923726502</v>
       </c>
       <c r="E11">
-        <v>14.53577602565821</v>
+        <v>30.53033627080802</v>
       </c>
       <c r="F11">
-        <v>24.48837128584228</v>
+        <v>34.65669141312583</v>
       </c>
       <c r="G11">
-        <v>3.617622336802807</v>
+        <v>1.864064777672696</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.60451053187614</v>
+        <v>21.38299699566683</v>
       </c>
       <c r="M11">
-        <v>73.58274324506252</v>
+        <v>142.3833478788076</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.5178230871501</v>
+        <v>27.94425626719853</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.175768608925388</v>
+        <v>15.12055414916804</v>
       </c>
       <c r="D12">
-        <v>4.885306025052649</v>
+        <v>6.386223145898508</v>
       </c>
       <c r="E12">
-        <v>14.61216342968768</v>
+        <v>31.75573360031784</v>
       </c>
       <c r="F12">
-        <v>24.43023748965814</v>
+        <v>36.25068403832118</v>
       </c>
       <c r="G12">
-        <v>3.616390297626789</v>
+        <v>1.851562118993336</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.66193344514235</v>
+        <v>22.10093584746085</v>
       </c>
       <c r="M12">
-        <v>74.41008167231267</v>
+        <v>146.2992832351765</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.43976746239898</v>
+        <v>29.34715531812659</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.186801055810433</v>
+        <v>14.90823663004502</v>
       </c>
       <c r="D13">
-        <v>4.887772179720236</v>
+        <v>6.323652682207554</v>
       </c>
       <c r="E13">
-        <v>14.59568577339803</v>
+        <v>31.475892431353</v>
       </c>
       <c r="F13">
-        <v>24.44259599414707</v>
+        <v>35.88875302642002</v>
       </c>
       <c r="G13">
-        <v>3.616654917579418</v>
+        <v>1.85440235269064</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.64956589803744</v>
+        <v>21.93757310597959</v>
       </c>
       <c r="M13">
-        <v>74.23269153409206</v>
+        <v>145.4156364287974</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.4564590646833</v>
+        <v>29.02828134590417</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.222987648901386</v>
+        <v>14.26478349717314</v>
       </c>
       <c r="D14">
-        <v>4.895863876777773</v>
+        <v>6.133467139325291</v>
       </c>
       <c r="E14">
-        <v>14.54204854997918</v>
+        <v>30.6247374768967</v>
       </c>
       <c r="F14">
-        <v>24.48351596667401</v>
+        <v>34.78029664285835</v>
       </c>
       <c r="G14">
-        <v>3.617520650590103</v>
+        <v>1.86309574734519</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.60923446381947</v>
+        <v>21.43854814406993</v>
       </c>
       <c r="M14">
-        <v>73.65116579970345</v>
+        <v>142.6893402420892</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.51134790559784</v>
+        <v>28.05291138001594</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.245311336416956</v>
+        <v>13.90125664830973</v>
       </c>
       <c r="D15">
-        <v>4.900857828310388</v>
+        <v>6.025619350751713</v>
       </c>
       <c r="E15">
-        <v>14.50927202946939</v>
+        <v>30.14159321969253</v>
       </c>
       <c r="F15">
-        <v>24.50905132357781</v>
+        <v>34.14637738551026</v>
       </c>
       <c r="G15">
-        <v>3.618053054861376</v>
+        <v>1.868064933051205</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.58453247983229</v>
+        <v>21.15379510006</v>
       </c>
       <c r="M15">
-        <v>73.29264503081721</v>
+        <v>141.1155703053726</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.54531571673626</v>
+        <v>27.49588750111599</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.375626466332051</v>
+        <v>12.12087322728332</v>
       </c>
       <c r="D16">
-        <v>4.930046803813864</v>
+        <v>5.492379431832328</v>
       </c>
       <c r="E16">
-        <v>14.32267721738075</v>
+        <v>27.74504442169533</v>
       </c>
       <c r="F16">
-        <v>24.6624834399929</v>
+        <v>30.96163166672387</v>
       </c>
       <c r="G16">
-        <v>3.621136704521297</v>
+        <v>1.893029824848888</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.44304174723973</v>
+        <v>19.7240801191748</v>
       </c>
       <c r="M16">
-        <v>71.20254402110731</v>
+        <v>133.0194558290409</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.74520727290193</v>
+        <v>24.70503283177971</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.457659107660977</v>
+        <v>11.20255860600605</v>
       </c>
       <c r="D17">
-        <v>4.948457313251619</v>
+        <v>5.213199344706021</v>
       </c>
       <c r="E17">
-        <v>14.20935408443424</v>
+        <v>26.48332635197308</v>
       </c>
       <c r="F17">
-        <v>24.76282003361363</v>
+        <v>29.26648511766128</v>
       </c>
       <c r="G17">
-        <v>3.623057773457798</v>
+        <v>1.906342907646982</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.35633757893966</v>
+        <v>18.95885846226147</v>
       </c>
       <c r="M17">
-        <v>69.88859565467529</v>
+        <v>128.5686805975577</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.8724215083762</v>
+        <v>23.22389264809785</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.505593978676249</v>
+        <v>10.71632372245776</v>
       </c>
       <c r="D18">
-        <v>4.959229789761626</v>
+        <v>5.063903349991888</v>
       </c>
       <c r="E18">
-        <v>14.14461326832235</v>
+        <v>25.80607469980857</v>
       </c>
       <c r="F18">
-        <v>24.82276493411979</v>
+        <v>28.35416021958281</v>
       </c>
       <c r="G18">
-        <v>3.624173589683288</v>
+        <v>1.913524244896735</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.30651770608612</v>
+        <v>18.54425525970022</v>
       </c>
       <c r="M18">
-        <v>69.12118485935399</v>
+        <v>126.1414856384056</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.94724485503059</v>
+        <v>22.42774525277031</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.521951621861232</v>
+        <v>10.55761923151481</v>
       </c>
       <c r="D19">
-        <v>4.962908454585035</v>
+        <v>5.014920026525862</v>
       </c>
       <c r="E19">
-        <v>14.12277039627248</v>
+        <v>25.58344601768871</v>
       </c>
       <c r="F19">
-        <v>24.84344037666553</v>
+        <v>28.05412860155758</v>
       </c>
       <c r="G19">
-        <v>3.6245532602062</v>
+        <v>1.915889271729792</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.289659593714</v>
+        <v>18.40735441954605</v>
       </c>
       <c r="M19">
-        <v>68.85935022239195</v>
+        <v>125.3345835512185</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.97285965049631</v>
+        <v>22.16605270428155</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.448848437218246</v>
+        <v>11.29563542352123</v>
       </c>
       <c r="D20">
-        <v>4.946478474953206</v>
+        <v>5.241653211827975</v>
       </c>
       <c r="E20">
-        <v>14.22137243700314</v>
+        <v>26.61219038495775</v>
       </c>
       <c r="F20">
-        <v>24.75190674132723</v>
+        <v>29.43994977975214</v>
       </c>
       <c r="G20">
-        <v>3.622852149412373</v>
+        <v>1.904978992159876</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.36556254404256</v>
+        <v>19.03743591504553</v>
       </c>
       <c r="M20">
-        <v>70.0296748173248</v>
+        <v>129.0258689590738</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.85870752452566</v>
+        <v>23.3753416272276</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.212325669622958</v>
+        <v>14.44679641534001</v>
       </c>
       <c r="D21">
-        <v>4.893479310991101</v>
+        <v>6.1873534031372</v>
       </c>
       <c r="E21">
-        <v>14.5577869813727</v>
+        <v>30.86599932277189</v>
       </c>
       <c r="F21">
-        <v>24.4713984095335</v>
+        <v>35.09560868184634</v>
       </c>
       <c r="G21">
-        <v>3.61726592294143</v>
+        <v>1.860623490849549</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.62108040601348</v>
+        <v>21.58033259049785</v>
       </c>
       <c r="M21">
-        <v>73.82245733935962</v>
+        <v>143.4680655243321</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.49515325294007</v>
+        <v>28.33018379621279</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.064788648291268</v>
+        <v>18.10888125500611</v>
       </c>
       <c r="D22">
-        <v>4.860516647481975</v>
+        <v>7.258938994005863</v>
       </c>
       <c r="E22">
-        <v>14.78118555233986</v>
+        <v>35.65758226021716</v>
       </c>
       <c r="F22">
-        <v>24.30900544350633</v>
+        <v>41.14087358467371</v>
       </c>
       <c r="G22">
-        <v>3.613710011979133</v>
+        <v>1.813040464543006</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.78821331032586</v>
+        <v>24.34637878719417</v>
       </c>
       <c r="M22">
-        <v>76.19744360099241</v>
+        <v>157.9946639494583</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.27298260761975</v>
+        <v>33.67802099437819</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.14286910664768</v>
+        <v>15.81182913126576</v>
       </c>
       <c r="D23">
-        <v>4.877953913853954</v>
+        <v>6.589363982860514</v>
       </c>
       <c r="E23">
-        <v>14.66164846404137</v>
+        <v>32.66385068258274</v>
       </c>
       <c r="F23">
-        <v>24.39371070631758</v>
+        <v>37.41588678303829</v>
       </c>
       <c r="G23">
-        <v>3.615599262508329</v>
+        <v>1.842410722283078</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.69901312984888</v>
+        <v>22.62877063224354</v>
       </c>
       <c r="M23">
-        <v>74.93936069436391</v>
+        <v>149.1243093565871</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.39011116889658</v>
+        <v>30.37515868451793</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.452829336630568</v>
+        <v>11.25343005382955</v>
       </c>
       <c r="D24">
-        <v>4.947372522546486</v>
+        <v>5.228755635752797</v>
       </c>
       <c r="E24">
-        <v>14.21593765793912</v>
+        <v>26.55378694750584</v>
       </c>
       <c r="F24">
-        <v>24.75683361264927</v>
+        <v>29.36133933937423</v>
       </c>
       <c r="G24">
-        <v>3.622945076615284</v>
+        <v>1.905597035653834</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.36139184813132</v>
+        <v>19.00183540166586</v>
       </c>
       <c r="M24">
-        <v>69.96593031850452</v>
+        <v>128.8188462576964</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.86490237223584</v>
+        <v>23.30670515587552</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.815770661416581</v>
+        <v>8.173689424687693</v>
       </c>
       <c r="D25">
-        <v>5.029236999251143</v>
+        <v>4.258247297519755</v>
       </c>
       <c r="E25">
-        <v>13.75221297396007</v>
+        <v>22.11247455338588</v>
       </c>
       <c r="F25">
-        <v>25.2333552949198</v>
+        <v>23.40464862206885</v>
       </c>
       <c r="G25">
-        <v>3.631285226717909</v>
+        <v>1.952900473317136</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.999335104676701</v>
+        <v>16.23085889756653</v>
       </c>
       <c r="M25">
-        <v>64.15568675200575</v>
+        <v>112.15931809487</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.43988783682022</v>
+        <v>18.11610032458785</v>
       </c>
     </row>
   </sheetData>
